--- a/Excel-XLSX/UN-PAR.xlsx
+++ b/Excel-XLSX/UN-PAR.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>iI4Dob</t>
+    <t>1vVGbZ</t>
   </si>
   <si>
     <t>1969</t>
@@ -1452,7 +1452,7 @@
     <t>285</t>
   </si>
   <si>
-    <t>3515</t>
+    <t>2254</t>
   </si>
   <si>
     <t>286</t>
